--- a/test_data/group1.xlsx
+++ b/test_data/group1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zyeve\go\src\github.com\ega-forever\aws-demo-uploader\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC186396-553F-47A0-B08B-E37B1DCB7AF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A3DB08-8C0B-4198-8653-FE8749AE8B45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="3285" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13395" yWindow="3480" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>name</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>Jane</t>
+  </si>
+  <si>
+    <t>Boris</t>
+  </si>
+  <si>
+    <t>Gover</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Sort</t>
   </si>
 </sst>
 </file>
@@ -366,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,6 +428,34 @@
         <v>87</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
